--- a/biology/Botanique/Ipomoea_noemana/Ipomoea_noemana.xlsx
+++ b/biology/Botanique/Ipomoea_noemana/Ipomoea_noemana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea noemana est une espèce de plantes de la famille des Convolvulaceae, endémique du Pérou.
-Elle fait partie des 10 espèces sélectionnées par les botanistes des jardins botaniques royaux de Kew parmi les espèces décrites en 2020[2].
+Elle fait partie des 10 espèces sélectionnées par les botanistes des jardins botaniques royaux de Kew parmi les espèces décrites en 2020.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épithète spécifique noemana  rend hommage à Noema Cano Flores, philanthrope qui a contribué financièrement à l’étude de la diversité des plantes sur les pentes orientales de la région d'Áncash[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épithète spécifique noemana  rend hommage à Noema Cano Flores, philanthrope qui a contribué financièrement à l’étude de la diversité des plantes sur les pentes orientales de la région d'Áncash.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont de couleur rose[3], et la plante produit des tubercules violets de 10 cm de diamètre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont de couleur rose, et la plante produit des tubercules violets de 10 cm de diamètre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea noemana est endémique du Pérou[1]. Le type nomenclatural a été collecté dans le département d’Áncash[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea noemana est endémique du Pérou. Le type nomenclatural a été collecté dans le département d’Áncash.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea noemana pousse au milieu des cactus à 2 300 m d’altitude[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea noemana pousse au milieu des cactus à 2 300 m d’altitude.
 </t>
         </is>
       </c>
@@ -636,11 +656,13 @@
           <t>Utilisation alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tubercules peuvent être consommés crus[2],[5].
-Bien que sa description scientifique n’ait été faite qu’en 2020, cette plante était connue depuis longtemps par les communautés locales des hautes Andes du Pérou sous le nom de « yura »[2].
-Sa qualité nutritionnelle n’a pas été encore analysée, mais Ipomoea noemana pourrait avoir un potentiel en tant que nouvelle plante alimentaire[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tubercules peuvent être consommés crus,.
+Bien que sa description scientifique n’ait été faite qu’en 2020, cette plante était connue depuis longtemps par les communautés locales des hautes Andes du Pérou sous le nom de « yura ».
+Sa qualité nutritionnelle n’a pas été encore analysée, mais Ipomoea noemana pourrait avoir un potentiel en tant que nouvelle plante alimentaire.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Enoc Jara, Pablo Muñoz-Rodríguez, John R. I. Wood et Hamilton Beltrán, « Ipomoea noemana (Convolvulaceae) a new species from Ancash eastern slope in Peru », Phytotaxa, vol. 461, no 4,‎ 9 octobre 2020, p. 286–294 (ISSN 1179-3163 et 1179-3155, DOI 10.11646/phytotaxa.461.4.5, lire en ligne, consulté le 18 décembre 2020)
 </t>
